--- a/IPAMNWprofiles.xlsx
+++ b/IPAMNWprofiles.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>theName</t>
   </si>
   <si>
-    <t>PS Excel Name</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -54,6 +51,90 @@
   </si>
   <si>
     <t>10.254.0.0/27</t>
+  </si>
+  <si>
+    <t>theEndpointId</t>
+  </si>
+  <si>
+    <t>c37c7634-5a76-4b31-b76d-ab1452ef82db</t>
+  </si>
+  <si>
+    <t>PS Excel Name1</t>
+  </si>
+  <si>
+    <t>PS Excel Name2</t>
+  </si>
+  <si>
+    <t>PS Excel Name3</t>
+  </si>
+  <si>
+    <t>PS Excel Name4</t>
+  </si>
+  <si>
+    <t>PS Excel Name5</t>
+  </si>
+  <si>
+    <t>PS Excel Name6</t>
+  </si>
+  <si>
+    <t>PS Excel Name7</t>
+  </si>
+  <si>
+    <t>PS Excel Name8</t>
+  </si>
+  <si>
+    <t>PS Excel Name9</t>
+  </si>
+  <si>
+    <t>network/default/10.254.0.32/27</t>
+  </si>
+  <si>
+    <t>10.254.0.32/27</t>
+  </si>
+  <si>
+    <t>10.253.48.0/24</t>
+  </si>
+  <si>
+    <t>10.253.49.0/24</t>
+  </si>
+  <si>
+    <t>10.253.50.0/24</t>
+  </si>
+  <si>
+    <t>10.253.51.0/24</t>
+  </si>
+  <si>
+    <t>10.253.73.0/24</t>
+  </si>
+  <si>
+    <t>10.253.252.0/24</t>
+  </si>
+  <si>
+    <t>192.168.5.0/24</t>
+  </si>
+  <si>
+    <t>RFC1918</t>
+  </si>
+  <si>
+    <t>Mini Lab 1</t>
+  </si>
+  <si>
+    <t>Mini Lab 2</t>
+  </si>
+  <si>
+    <t>NSX-Web</t>
+  </si>
+  <si>
+    <t>NSX-App</t>
+  </si>
+  <si>
+    <t>NSX-DB</t>
+  </si>
+  <si>
+    <t>NSX-SVR</t>
+  </si>
+  <si>
+    <t>Saunders Test</t>
   </si>
 </sst>
 </file>
@@ -405,53 +486,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("network/default/",F4)</f>
+        <v>network/default/10.253.48.0/24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E10" si="0">CONCATENATE("network/default/",F5)</f>
+        <v>network/default/10.253.49.0/24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>network/default/10.253.50.0/24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>network/default/10.253.51.0/24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>network/default/10.253.73.0/24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>network/default/10.253.252.0/24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>network/default/192.168.5.0/24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/IPAMNWprofiles.xlsx
+++ b/IPAMNWprofiles.xlsx
@@ -489,12 +489,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
